--- a/Task11_03/Сессия 1/Клиенты_import.xlsx
+++ b/Task11_03/Сессия 1/Клиенты_import.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="ФЛ" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Паспорт" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t>ФИО</t>
   </si>
@@ -21,9 +22,6 @@
     <t xml:space="preserve">Код клиента</t>
   </si>
   <si>
-    <t xml:space="preserve">Паспорт </t>
-  </si>
-  <si>
     <t xml:space="preserve">Дата рождения</t>
   </si>
   <si>
@@ -39,9 +37,6 @@
     <t xml:space="preserve">Фролов Андрей Иванович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1180  176596</t>
-  </si>
-  <si>
     <t xml:space="preserve">344288, г. Нальчик, ул. Чехова, 1, кв. 34</t>
   </si>
   <si>
@@ -54,9 +49,6 @@
     <t xml:space="preserve">Николаев Даниил Всеволодович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2280  223523</t>
-  </si>
-  <si>
     <t xml:space="preserve">614164, г. Нальчик, ул. Степная, 30, кв. 75</t>
   </si>
   <si>
@@ -69,9 +61,6 @@
     <t xml:space="preserve">Снегирев Макар Иванович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4560  354155</t>
-  </si>
-  <si>
     <t xml:space="preserve">394242, г. Нальчик, ул. Коммунистическая, 43, кв. 57</t>
   </si>
   <si>
@@ -84,9 +73,6 @@
     <t xml:space="preserve">Иванов Иван Ильич</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9120  554296</t>
-  </si>
-  <si>
     <t xml:space="preserve">660540, г. Нальчик, ул. Солнечная, 25, кв. 78</t>
   </si>
   <si>
@@ -99,9 +85,6 @@
     <t xml:space="preserve">Филиппова Анна Глебовна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2367  558134</t>
-  </si>
-  <si>
     <t xml:space="preserve">125837, г. Нальчик, ул. Шоссейная, 40, кв. 92</t>
   </si>
   <si>
@@ -114,9 +97,6 @@
     <t xml:space="preserve">Иванов Михаил Владимирович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7101  669343</t>
-  </si>
-  <si>
     <t xml:space="preserve">125703, г. Нальчик, ул. Партизанская, 49, кв. 84</t>
   </si>
   <si>
@@ -129,9 +109,6 @@
     <t xml:space="preserve">Власов Дмитрий Александрович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3455  719630</t>
-  </si>
-  <si>
     <t xml:space="preserve">625283, г. Нальчик, ул. Победы, 46, кв. 7</t>
   </si>
   <si>
@@ -144,9 +121,6 @@
     <t xml:space="preserve">Серова Екатерина Львовна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2377  871623</t>
-  </si>
-  <si>
     <t xml:space="preserve">614611, г. Нальчик, ул. Молодежная, 50, кв. 78</t>
   </si>
   <si>
@@ -159,9 +133,6 @@
     <t xml:space="preserve">Борисова Ирина Ивановна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8755  921148</t>
-  </si>
-  <si>
     <t xml:space="preserve">454311, г. Нальчик, ул. Новая, 19, кв. 78</t>
   </si>
   <si>
@@ -174,9 +145,6 @@
     <t xml:space="preserve">Зайцев Никита Артёмович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4355  104594</t>
-  </si>
-  <si>
     <t xml:space="preserve">660007, г. Нальчик, ул. Октябрьская, 19, кв. 42</t>
   </si>
   <si>
@@ -189,9 +157,6 @@
     <t xml:space="preserve">Медведев Святослав Евгеньевич</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2791  114390</t>
-  </si>
-  <si>
     <t xml:space="preserve">603036, г. Нальчик, ул. Садовая, 4, кв. 13</t>
   </si>
   <si>
@@ -204,9 +169,6 @@
     <t xml:space="preserve">Коротков Кирилл Алексеевич</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5582  126286</t>
-  </si>
-  <si>
     <t xml:space="preserve">450983, г. Нальчик, ул. Комсомольская, 26, кв. 60</t>
   </si>
   <si>
@@ -219,9 +181,6 @@
     <t xml:space="preserve">Калашникова Арина Максимовна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2978  133653</t>
-  </si>
-  <si>
     <t xml:space="preserve">394782, г. Нальчик, ул. Чехова, 3, кв. 14</t>
   </si>
   <si>
@@ -234,9 +193,6 @@
     <t xml:space="preserve">Минина Таисия Кирилловна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7512  141956</t>
-  </si>
-  <si>
     <t xml:space="preserve">603002, г. Нальчик, ул. Дзержинского, 28, кв. 56</t>
   </si>
   <si>
@@ -249,9 +205,6 @@
     <t xml:space="preserve">Наумов Серафим Романович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5046  158433</t>
-  </si>
-  <si>
     <t xml:space="preserve">450558, г. Нальчик, ул. Набережная, 30, кв. 71</t>
   </si>
   <si>
@@ -264,9 +217,6 @@
     <t xml:space="preserve">Воробьева Василиса Евгеньевна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2460  169505</t>
-  </si>
-  <si>
     <t xml:space="preserve">394060, г. Нальчик, ул. Фрунзе, 43, кв. 79</t>
   </si>
   <si>
@@ -279,9 +229,6 @@
     <t xml:space="preserve">Калинин Александр Андреевич</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3412  174593</t>
-  </si>
-  <si>
     <t xml:space="preserve">410661, г. Нальчик, ул. Школьная, 50, кв. 53</t>
   </si>
   <si>
@@ -294,9 +241,6 @@
     <t xml:space="preserve">Кузнецова Милана Владиславовна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4950  183034</t>
-  </si>
-  <si>
     <t xml:space="preserve">625590, г. Нальчик, ул. Коммунистическая, 20, кв. 34</t>
   </si>
   <si>
@@ -309,9 +253,6 @@
     <t xml:space="preserve">Фирсов Егор Романович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5829  219464</t>
-  </si>
-  <si>
     <t xml:space="preserve">625683, г. Нальчик, ул. 8 Марта, 20, кв. 21</t>
   </si>
   <si>
@@ -324,9 +265,6 @@
     <t xml:space="preserve">Зимина Агния Александровна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6443  208059</t>
-  </si>
-  <si>
     <t xml:space="preserve">400562, г. Нальчик, ул. Зеленая, 32, кв. 67</t>
   </si>
   <si>
@@ -339,9 +277,6 @@
     <t xml:space="preserve">Титов Андрей Глебович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7079  213265</t>
-  </si>
-  <si>
     <t xml:space="preserve">614510, г. Нальчик, ул. Маяковского, 47, кв. 72</t>
   </si>
   <si>
@@ -354,9 +289,6 @@
     <t xml:space="preserve">Орлов Николай Егорович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8207  522702</t>
-  </si>
-  <si>
     <t xml:space="preserve">410542, г. Нальчик, ул. Светлая, 46, кв. 82</t>
   </si>
   <si>
@@ -369,9 +301,6 @@
     <t xml:space="preserve">Кузнецова Аиша Михайловна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9307  232158</t>
-  </si>
-  <si>
     <t xml:space="preserve">620839, г. Нальчик, ул. Цветочная, 8, кв. 100</t>
   </si>
   <si>
@@ -384,9 +313,6 @@
     <t xml:space="preserve">Куликов Никита Георгиевич</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1357  242839</t>
-  </si>
-  <si>
     <t xml:space="preserve">443890, г. Нальчик, ул. Коммунистическая, 1, кв. 10</t>
   </si>
   <si>
@@ -399,9 +325,6 @@
     <t xml:space="preserve">Карпова София Егоровна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1167  256636</t>
-  </si>
-  <si>
     <t xml:space="preserve">603379, г. Нальчик, ул. Спортивная, 46, кв. 95</t>
   </si>
   <si>
@@ -414,9 +337,6 @@
     <t xml:space="preserve">Смирнова Дарья Макаровна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1768  266986</t>
-  </si>
-  <si>
     <t xml:space="preserve">603721, г. Нальчик, ул. Гоголя, 41, кв. 57</t>
   </si>
   <si>
@@ -429,9 +349,6 @@
     <t xml:space="preserve">Абрамова Александра Мироновна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1710  427875</t>
-  </si>
-  <si>
     <t xml:space="preserve">410172, г. Нальчик, ул. Северная, 13, кв. 86</t>
   </si>
   <si>
@@ -444,9 +361,6 @@
     <t xml:space="preserve">Наумов Руслан Михайлович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1806  289145</t>
-  </si>
-  <si>
     <t xml:space="preserve">420151, г. Нальчик, ул. Вишневая, 32, кв. 81</t>
   </si>
   <si>
@@ -459,9 +373,6 @@
     <t xml:space="preserve">Бочаров Никита Матвеевич</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1587  291249</t>
-  </si>
-  <si>
     <t xml:space="preserve">125061, г. Нальчик, ул. Подгорная, 8, кв. 74</t>
   </si>
   <si>
@@ -474,9 +385,6 @@
     <t xml:space="preserve">Соловьев Давид Ильич</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1647  306372</t>
-  </si>
-  <si>
     <t xml:space="preserve">630370, г. Нальчик, ул. Шоссейная, 24, кв. 81</t>
   </si>
   <si>
@@ -489,9 +397,6 @@
     <t xml:space="preserve">Васильева Валерия Дмитриевна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1742  316556</t>
-  </si>
-  <si>
     <t xml:space="preserve">614753, г. Нальчик, ул. Полевая, 35, кв. 39</t>
   </si>
   <si>
@@ -504,9 +409,6 @@
     <t xml:space="preserve">Макарова Василиса Андреевна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1474  326347</t>
-  </si>
-  <si>
     <t xml:space="preserve">426030, г. Нальчик, ул. Маяковского, 44, кв. 93</t>
   </si>
   <si>
@@ -519,9 +421,6 @@
     <t xml:space="preserve">Алексеев Матвей Викторович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1452  339539</t>
-  </si>
-  <si>
     <t xml:space="preserve">450375, г. Нальчик, ул. Клубная, 44, кв. 80</t>
   </si>
   <si>
@@ -534,9 +433,6 @@
     <t xml:space="preserve">Никитина Полина Александровна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2077  443480</t>
-  </si>
-  <si>
     <t xml:space="preserve">625560, г. Нальчик, ул. Некрасова, 12, кв. 66</t>
   </si>
   <si>
@@ -549,9 +445,6 @@
     <t xml:space="preserve">Окулова Олеся Алексеевна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2147  357518</t>
-  </si>
-  <si>
     <t xml:space="preserve">630201, г. Нальчик, ул. Комсомольская, 17, кв. 25</t>
   </si>
   <si>
@@ -564,9 +457,6 @@
     <t xml:space="preserve">Захарова Полина Яновна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2687  363884</t>
-  </si>
-  <si>
     <t xml:space="preserve">190949, г. Нальчик, ул. Мичурина, 26, кв. 93</t>
   </si>
   <si>
@@ -579,9 +469,6 @@
     <t xml:space="preserve">Зайцев Владимир Давидович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2376  443711</t>
-  </si>
-  <si>
     <t xml:space="preserve">350501, г. Нальчик, ул. Парковая, 2, кв. 7</t>
   </si>
   <si>
@@ -594,9 +481,6 @@
     <t xml:space="preserve">Иванов Виталий Даниилович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2568  386237</t>
-  </si>
-  <si>
     <t xml:space="preserve">450048, г. Нальчик, ул. Коммунистическая, 21, кв. 3</t>
   </si>
   <si>
@@ -609,9 +493,6 @@
     <t xml:space="preserve">Захаров Матвей Романович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2556  439376</t>
-  </si>
-  <si>
     <t xml:space="preserve">644921, г. Нальчик, ул. Школьная, 46, кв. 37</t>
   </si>
   <si>
@@ -624,9 +505,6 @@
     <t xml:space="preserve">Иванов Степан Степанович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2737  407501</t>
-  </si>
-  <si>
     <t xml:space="preserve">614228, г. Нальчик, ул. Дорожная, 36, кв. 54</t>
   </si>
   <si>
@@ -639,9 +517,6 @@
     <t xml:space="preserve">Ткачева Милана Тимуровна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2581  441645</t>
-  </si>
-  <si>
     <t xml:space="preserve">350940, г. Нальчик, ул. Первомайская, 23, кв. 2</t>
   </si>
   <si>
@@ -654,9 +529,6 @@
     <t xml:space="preserve">Семенов Даниил Иванович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2675  427933</t>
-  </si>
-  <si>
     <t xml:space="preserve">344990, г. Нальчик, ул. Красноармейская, 19, кв. 92</t>
   </si>
   <si>
@@ -669,9 +541,6 @@
     <t xml:space="preserve">Виноградов Вячеслав Дмитриевич</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2967  434531</t>
-  </si>
-  <si>
     <t xml:space="preserve">410248, г. Нальчик, ул. Чкалова, 11, кв. 75</t>
   </si>
   <si>
@@ -684,9 +553,6 @@
     <t xml:space="preserve">Соболева Николь Фёдоровна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3070  449655</t>
-  </si>
-  <si>
     <t xml:space="preserve">400839, г. Нальчик, ул. 8 Марта, 46, кв. 44</t>
   </si>
   <si>
@@ -699,9 +565,6 @@
     <t xml:space="preserve">Тихонова Анна Львовна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3108  451174</t>
-  </si>
-  <si>
     <t xml:space="preserve">450539, г. Нальчик, ул. Заводская, 3, кв. 81</t>
   </si>
   <si>
@@ -714,9 +577,6 @@
     <t xml:space="preserve">Кузнецова Ульяна Савельевна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3250  464705</t>
-  </si>
-  <si>
     <t xml:space="preserve">614591, г. Нальчик, ул. Цветочная, 20, кв. 40</t>
   </si>
   <si>
@@ -729,9 +589,6 @@
     <t xml:space="preserve">Смирнова Анна Германовна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3392  471644</t>
-  </si>
-  <si>
     <t xml:space="preserve">400260, г. Нальчик, ул. Больничная, 30, кв. 53</t>
   </si>
   <si>
@@ -744,9 +601,6 @@
     <t xml:space="preserve">Черепанова Анна Давидовна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3497  487819</t>
-  </si>
-  <si>
     <t xml:space="preserve">660924, г. Нальчик, ул. Молодежная, 32, кв. 59</t>
   </si>
   <si>
@@ -759,9 +613,6 @@
     <t xml:space="preserve">Григорьев Максим Кириллович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3560  491260</t>
-  </si>
-  <si>
     <t xml:space="preserve">644133, г. Нальчик, ул. Гагарина, 28, кв. 69</t>
   </si>
   <si>
@@ -774,9 +625,6 @@
     <t xml:space="preserve">Голубев Даниэль Александрович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3620  506034</t>
-  </si>
-  <si>
     <t xml:space="preserve">450698, г. Нальчик, ул. Вокзальная, 14, кв. 37</t>
   </si>
   <si>
@@ -789,9 +637,6 @@
     <t xml:space="preserve">Миронов Юрий Денисович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3774  511438</t>
-  </si>
-  <si>
     <t xml:space="preserve">620653, г. Нальчик, ул. Западная, 15, кв. 25</t>
   </si>
   <si>
@@ -804,9 +649,6 @@
     <t xml:space="preserve">Терехов Михаил Андреевич</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3862  521377</t>
-  </si>
-  <si>
     <t xml:space="preserve">644321, г. Нальчик, ул. Клубная, 32, кв. 10</t>
   </si>
   <si>
@@ -819,9 +661,6 @@
     <t xml:space="preserve">Орлова Алиса Михайловна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3084  535966</t>
-  </si>
-  <si>
     <t xml:space="preserve">603653, г. Нальчик, ул. Молодежная, 2, кв. 45</t>
   </si>
   <si>
@@ -834,9 +673,6 @@
     <t xml:space="preserve">Кулаков Константин Даниилович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4021  541528</t>
-  </si>
-  <si>
     <t xml:space="preserve">410181, г. Нальчик, ул. Механизаторов, 16, кв. 74</t>
   </si>
   <si>
@@ -849,9 +685,6 @@
     <t xml:space="preserve">Кудрявцев Максим Романович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4109  554053</t>
-  </si>
-  <si>
     <t xml:space="preserve">394207, г. Нальчик, ул. Свердлова, 31, кв. 28</t>
   </si>
   <si>
@@ -864,9 +697,6 @@
     <t xml:space="preserve">Соболева Кира Фёдоровна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4537  564868</t>
-  </si>
-  <si>
     <t xml:space="preserve">420633, г. Нальчик, ул. Матросова, 18, кв. 41</t>
   </si>
   <si>
@@ -879,9 +709,6 @@
     <t xml:space="preserve">Коновалов Арсений Максимович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4914  572471</t>
-  </si>
-  <si>
     <t xml:space="preserve">445720, г. Нальчик, ул. Матросова, 50, кв. 67</t>
   </si>
   <si>
@@ -894,9 +721,6 @@
     <t xml:space="preserve">Гусев Михаил Дмитриевич</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4445  581302</t>
-  </si>
-  <si>
     <t xml:space="preserve">400646, г. Нальчик, ул. Октябрьская, 47, кв. 65</t>
   </si>
   <si>
@@ -909,9 +733,6 @@
     <t xml:space="preserve">Суханова Варвара Матвеевна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4743  598180</t>
-  </si>
-  <si>
     <t xml:space="preserve">644410, г. Нальчик, ул. Красная, 17, кв. 69</t>
   </si>
   <si>
@@ -924,9 +745,6 @@
     <t xml:space="preserve">Орлова Ясмина Васильевна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4741  601821</t>
-  </si>
-  <si>
     <t xml:space="preserve">400750, г. Нальчик, ул. Школьная, 36, кв. 71</t>
   </si>
   <si>
@@ -939,9 +757,6 @@
     <t xml:space="preserve">Васильева Ксения Константиновна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4783  612567</t>
-  </si>
-  <si>
     <t xml:space="preserve">660590, г. Нальчик, ул. Дачная, 37, кв. 70</t>
   </si>
   <si>
@@ -954,9 +769,6 @@
     <t xml:space="preserve">Борисова Тамара Данииловна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4658  621200</t>
-  </si>
-  <si>
     <t xml:space="preserve">426083, г. Нальчик, ул. Механизаторов, 41, кв. 26</t>
   </si>
   <si>
@@ -969,9 +781,6 @@
     <t xml:space="preserve">Дмитриев Мирон Ильич</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4908  634613</t>
-  </si>
-  <si>
     <t xml:space="preserve">410569, г. Нальчик, ул. Парковая, 36, кв. 17</t>
   </si>
   <si>
@@ -984,9 +793,6 @@
     <t xml:space="preserve">Лебедева Анна Александровна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5092  642468</t>
-  </si>
-  <si>
     <t xml:space="preserve">443375, г. Нальчик, ул. Дзержинского, 50, кв. 95</t>
   </si>
   <si>
@@ -999,9 +805,6 @@
     <t xml:space="preserve">Пономарев Артём Маркович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5155  465274</t>
-  </si>
-  <si>
     <t xml:space="preserve">614316, г. Нальчик, ул. Первомайская, 48, кв. 31</t>
   </si>
   <si>
@@ -1014,9 +817,6 @@
     <t xml:space="preserve">Борисова Елена Михайловна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5086  666893</t>
-  </si>
-  <si>
     <t xml:space="preserve">445685, г. Нальчик, ул. Зеленая, 7, кв. 47</t>
   </si>
   <si>
@@ -1029,9 +829,6 @@
     <t xml:space="preserve">Моисеев Камиль Максимович</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5333  675375</t>
-  </si>
-  <si>
     <t xml:space="preserve">614505, г. Нальчик, ул. Нагорная, 37, кв. 31</t>
   </si>
   <si>
@@ -1044,9 +841,6 @@
     <t xml:space="preserve">Герасимова Дарья Константиновна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5493  684572</t>
-  </si>
-  <si>
     <t xml:space="preserve">426629, г. Нальчик, ул. Весенняя, 32, кв. 46</t>
   </si>
   <si>
@@ -1059,9 +853,6 @@
     <t xml:space="preserve">Михайлова Мария Марковна</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5150  696226</t>
-  </si>
-  <si>
     <t xml:space="preserve">603743, г. Нальчик, ул. Матросова, 19, кв. 20</t>
   </si>
   <si>
@@ -1072,9 +863,6 @@
   </si>
   <si>
     <t xml:space="preserve">Коршунов Кирилл Максимович</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1308  703305</t>
   </si>
   <si>
     <t xml:space="preserve">450750, г. Нальчик, ул. Клубная, 23, кв. 90</t>
@@ -1092,15 +880,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="12.000000"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Lato"/>
+      <color rgb="FF797979"/>
       <sz val="24.000000"/>
-      <color rgb="FF797979"/>
-      <name val="Lato"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1113,28 +901,27 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1195,10 +982,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="пј­пјі г‚ґг‚·гѓѓг‚Ї"/>
-        <a:font script="Hang" typeface="л§‘мќЂ кі л”•"/>
-        <a:font script="Hans" typeface="е®‹дЅ“"/>
-        <a:font script="Hant" typeface="ж–°зґ°жЋй«”"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Angsana New"/>
@@ -1229,10 +1016,10 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="пј­пјі жЋжњќ"/>
-        <a:font script="Hang" typeface="л§‘мќЂ кі л”•"/>
-        <a:font script="Hans" typeface="е®‹дЅ“"/>
-        <a:font script="Hant" typeface="ж–°зґ°жЋй«”"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Cordia New"/>
@@ -1650,10 +1437,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="38.6640625"/>
     <col customWidth="1" min="2" max="2" style="1" width="19.33203125"/>
-    <col customWidth="1" min="3" max="4" width="27"/>
-    <col customWidth="1" min="5" max="5" style="1" width="17.33203125"/>
-    <col customWidth="1" min="6" max="6" width="56"/>
-    <col customWidth="1" min="7" max="7" width="35.1640625"/>
+    <col customWidth="1" min="3" max="3" style="1" width="17.33203125"/>
+    <col customWidth="1" min="4" max="4" width="56"/>
+    <col customWidth="1" min="5" max="5" width="35.1640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1663,1718 +1449,2292 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>45462526</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3">
+        <v>37086</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2"/>
-      <c r="E2" s="5">
-        <v>37086</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>45462527</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3">
+        <v>36932</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" s="5">
-        <v>36932</v>
-      </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>45462528</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3">
+        <v>35936</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" s="5">
-        <v>35936</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>45462529</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" s="5">
+      <c r="C5" s="3">
         <v>36069</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
+      <c r="A6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <v>45462530</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" s="5">
+      <c r="C6" s="3">
         <v>27911</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>31</v>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
+      <c r="A7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="1">
         <v>45462531</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7" s="5">
+      <c r="C7" s="3">
         <v>31355</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>36</v>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
+      <c r="A8" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>45462532</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8" s="5">
+      <c r="C8" s="3">
         <v>36024</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>41</v>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>42</v>
+      <c r="A9" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="1">
         <v>45462533</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9" s="5">
+      <c r="C9" s="3">
         <v>30979</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>46</v>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>47</v>
+      <c r="A10" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B10" s="1">
         <v>45462534</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10" s="5">
+      <c r="C10" s="3">
         <v>28047</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>51</v>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>52</v>
+      <c r="A11" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B11" s="1">
         <v>45462535</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11" s="5">
+      <c r="C11" s="3">
         <v>36447</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>56</v>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>57</v>
+      <c r="A12" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B12" s="1">
         <v>45462536</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12" s="5">
+      <c r="C12" s="3">
         <v>31241</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>61</v>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>62</v>
+      <c r="A13" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B13" s="1">
         <v>45462537</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13" s="5">
+      <c r="C13" s="3">
         <v>27906</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>66</v>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>67</v>
+      <c r="A14" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B14" s="1">
         <v>45462538</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14" s="5">
+      <c r="C14" s="3">
         <v>36385</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>71</v>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>72</v>
+      <c r="A15" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B15" s="1">
         <v>45462539</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15" s="5">
+      <c r="C15" s="3">
         <v>31333</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>76</v>
+      <c r="D15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>77</v>
+      <c r="A16" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B16" s="1">
         <v>45462540</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16" s="5">
+      <c r="C16" s="3">
         <v>36265</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>81</v>
+      <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>82</v>
+      <c r="A17" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B17" s="1">
         <v>45462541</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17" s="5">
+      <c r="C17" s="3">
         <v>36173</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>86</v>
+      <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>87</v>
+      <c r="A18" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="B18" s="1">
         <v>45462542</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18" s="5">
+      <c r="C18" s="3">
         <v>36167</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>91</v>
+      <c r="D18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>92</v>
+      <c r="A19" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B19" s="1">
         <v>45462543</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19" s="5">
+      <c r="C19" s="3">
         <v>36184</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>96</v>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>97</v>
+      <c r="A20" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B20" s="1">
         <v>45462544</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20" s="5">
+      <c r="C20" s="3">
         <v>34214</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>101</v>
+      <c r="D20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>102</v>
+      <c r="A21" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B21" s="1">
         <v>45462545</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21" s="5">
+      <c r="C21" s="3">
         <v>36041</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>106</v>
+      <c r="D21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>107</v>
+      <c r="A22" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B22" s="1">
         <v>45462546</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22"/>
-      <c r="E22" s="5">
+      <c r="C22" s="3">
         <v>31343</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>111</v>
+      <c r="D22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>112</v>
+      <c r="A23" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B23" s="1">
         <v>45462547</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23"/>
-      <c r="E23" s="5">
+      <c r="C23" s="3">
         <v>31255</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>116</v>
+      <c r="D23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>117</v>
+      <c r="A24" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B24" s="1">
         <v>45462548</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24" s="5">
+      <c r="C24" s="3">
         <v>36072</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>121</v>
+      <c r="D24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>122</v>
+      <c r="A25" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B25" s="1">
         <v>45462549</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25"/>
-      <c r="E25" s="5">
+      <c r="C25" s="3">
         <v>36273</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>126</v>
+      <c r="D25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>127</v>
+      <c r="A26" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B26" s="1">
         <v>45462550</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26"/>
-      <c r="E26" s="5">
+      <c r="C26" s="3">
         <v>34243</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>131</v>
+      <c r="D26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>132</v>
+      <c r="A27" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="B27" s="1">
         <v>45462551</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27" s="5">
+      <c r="C27" s="3">
         <v>27841</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>136</v>
+      <c r="D27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>137</v>
+      <c r="A28" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B28" s="1">
         <v>45462552</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28"/>
-      <c r="E28" s="5">
+      <c r="C28" s="3">
         <v>36245</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>141</v>
+      <c r="D28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>142</v>
+      <c r="A29" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B29" s="1">
         <v>45462553</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29" s="5">
+      <c r="C29" s="3">
         <v>36444</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>146</v>
+      <c r="D29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
-        <v>147</v>
+      <c r="A30" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B30" s="1">
         <v>45462554</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30"/>
-      <c r="E30" s="5">
+      <c r="C30" s="3">
         <v>35610</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>151</v>
+      <c r="D30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
-        <v>152</v>
+      <c r="A31" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="B31" s="1">
         <v>45462555</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31"/>
-      <c r="E31" s="5">
+      <c r="C31" s="3">
         <v>30747</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>156</v>
+      <c r="D31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
-        <v>157</v>
+      <c r="A32" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B32" s="1">
         <v>45462556</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32"/>
-      <c r="E32" s="5">
+      <c r="C32" s="3">
         <v>36433</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>161</v>
+      <c r="D32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
-        <v>162</v>
+      <c r="A33" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="B33" s="1">
         <v>45462557</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33" s="5">
+      <c r="C33" s="3">
         <v>36258</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>166</v>
+      <c r="D33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>167</v>
+      <c r="A34" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="B34" s="1">
         <v>45462558</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34"/>
-      <c r="E34" s="5">
+      <c r="C34" s="3">
         <v>36009</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>171</v>
+      <c r="D34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
-        <v>172</v>
+      <c r="A35" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="B35" s="1">
         <v>45462559</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35" s="5">
+      <c r="C35" s="3">
         <v>28022</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>176</v>
+      <c r="D35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
-        <v>177</v>
+      <c r="A36" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="B36" s="1">
         <v>45462560</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36" s="5">
+      <c r="C36" s="3">
         <v>36253</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>181</v>
+      <c r="D36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>182</v>
+      <c r="A37" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="B37" s="1">
         <v>45462561</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37"/>
-      <c r="E37" s="5">
+      <c r="C37" s="3">
         <v>27871</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>186</v>
+      <c r="D37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
-        <v>187</v>
+      <c r="A38" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="B38" s="1">
         <v>45462562</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D38"/>
-      <c r="E38" s="5">
+      <c r="C38" s="3">
         <v>35821</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>191</v>
+      <c r="D38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
-        <v>192</v>
+      <c r="A39" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="B39" s="1">
         <v>45462563</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39"/>
-      <c r="E39" s="5">
+      <c r="C39" s="3">
         <v>27983</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>196</v>
+      <c r="D39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
-        <v>197</v>
+      <c r="A40" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="B40" s="1">
         <v>45462564</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D40"/>
-      <c r="E40" s="5">
+      <c r="C40" s="3">
         <v>34162</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>201</v>
+      <c r="D40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
-        <v>202</v>
+      <c r="A41" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="B41" s="1">
         <v>45462565</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41" s="5">
+      <c r="C41" s="3">
         <v>36057</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>206</v>
+      <c r="D41" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
-        <v>207</v>
+      <c r="A42" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="B42" s="1">
         <v>45462566</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42" s="5">
+      <c r="C42" s="3">
         <v>35939</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>211</v>
+      <c r="D42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
-        <v>212</v>
+      <c r="A43" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="B43" s="1">
         <v>45462567</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D43"/>
-      <c r="E43" s="5">
+      <c r="C43" s="3">
         <v>27763</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>216</v>
+      <c r="D43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
-        <v>217</v>
+      <c r="A44" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B44" s="1">
         <v>45462568</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D44"/>
-      <c r="E44" s="5">
+      <c r="C44" s="3">
         <v>27953</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>221</v>
+      <c r="D44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
-        <v>222</v>
+      <c r="A45" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="B45" s="1">
         <v>45462569</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D45"/>
-      <c r="E45" s="5">
+      <c r="C45" s="3">
         <v>27882</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>226</v>
+      <c r="D45" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
-        <v>227</v>
+      <c r="A46" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="B46" s="1">
         <v>45462570</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D46"/>
-      <c r="E46" s="5">
+      <c r="C46" s="3">
         <v>31129</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>231</v>
+      <c r="D46" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
-        <v>232</v>
+      <c r="A47" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="B47" s="1">
         <v>45462571</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D47"/>
-      <c r="E47" s="5">
+      <c r="C47" s="3">
         <v>36314</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>236</v>
+      <c r="D47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
-        <v>237</v>
+      <c r="A48" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="B48" s="1">
         <v>45462572</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D48"/>
-      <c r="E48" s="5">
+      <c r="C48" s="3">
         <v>35629</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>241</v>
+      <c r="D48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
-        <v>242</v>
+      <c r="A49" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="B49" s="1">
         <v>45462573</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49" s="5">
+      <c r="C49" s="3">
         <v>31357</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>246</v>
+      <c r="D49" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
-        <v>247</v>
+      <c r="A50" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B50" s="1">
         <v>45462574</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50" s="5">
+      <c r="C50" s="3">
         <v>36306</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>251</v>
+      <c r="D50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
-        <v>252</v>
+      <c r="A51" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="B51" s="1">
         <v>45462575</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D51"/>
-      <c r="E51" s="5">
+      <c r="C51" s="3">
         <v>36325</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>256</v>
+      <c r="D51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
-        <v>257</v>
+      <c r="A52" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="B52" s="1">
         <v>45462576</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D52"/>
-      <c r="E52" s="5">
+      <c r="C52" s="3">
         <v>31073</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>261</v>
+      <c r="D52" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
-        <v>262</v>
+      <c r="A53" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="B53" s="1">
         <v>45462577</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D53"/>
-      <c r="E53" s="5">
+      <c r="C53" s="3">
         <v>27947</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>266</v>
+      <c r="D53" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
-        <v>267</v>
+      <c r="A54" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="B54" s="1">
         <v>45462578</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D54"/>
-      <c r="E54" s="5">
+      <c r="C54" s="3">
         <v>35485</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>271</v>
+      <c r="D54" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
-        <v>272</v>
+      <c r="A55" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="B55" s="1">
         <v>45462579</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D55"/>
-      <c r="E55" s="5">
+      <c r="C55" s="3">
         <v>34140</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>276</v>
+      <c r="D55" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
-        <v>277</v>
+      <c r="A56" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="B56" s="1">
         <v>45462580</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D56"/>
-      <c r="E56" s="5">
+      <c r="C56" s="3">
         <v>35925</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>281</v>
+      <c r="D56" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
-        <v>282</v>
+      <c r="A57" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="B57" s="1">
         <v>45462581</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D57"/>
-      <c r="E57" s="5">
+      <c r="C57" s="3">
         <v>35868</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>286</v>
+      <c r="D57" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
-        <v>287</v>
+      <c r="A58" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="B58" s="1">
         <v>45462582</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D58"/>
-      <c r="E58" s="5">
+      <c r="C58" s="3">
         <v>31096</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>291</v>
+      <c r="D58" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
-        <v>292</v>
+      <c r="A59" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="B59" s="1">
         <v>45462583</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D59"/>
-      <c r="E59" s="5">
+      <c r="C59" s="3">
         <v>36487</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>296</v>
+      <c r="D59" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
-        <v>297</v>
+      <c r="A60" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="B60" s="1">
         <v>45462584</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D60"/>
-      <c r="E60" s="5">
+      <c r="C60" s="3">
         <v>34225</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>301</v>
+      <c r="D60" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
-        <v>302</v>
+      <c r="A61" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="B61" s="1">
         <v>45462585</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D61"/>
-      <c r="E61" s="5">
+      <c r="C61" s="3">
         <v>30857</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>306</v>
+      <c r="D61" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
-        <v>307</v>
+      <c r="A62" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="B62" s="1">
         <v>45462586</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D62"/>
-      <c r="E62" s="5">
+      <c r="C62" s="3">
         <v>36373</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>311</v>
+      <c r="D62" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
-        <v>312</v>
+      <c r="A63" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="B63" s="1">
         <v>45462587</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D63"/>
-      <c r="E63" s="5">
+      <c r="C63" s="3">
         <v>34118</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>316</v>
+      <c r="D63" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="s">
-        <v>317</v>
+      <c r="A64" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="B64" s="1">
         <v>45462588</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D64"/>
-      <c r="E64" s="5">
+      <c r="C64" s="3">
         <v>31150</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>321</v>
+      <c r="D64" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
-        <v>322</v>
+      <c r="A65" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="B65" s="1">
         <v>45462589</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D65"/>
-      <c r="E65" s="5">
+      <c r="C65" s="3">
         <v>31136</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>326</v>
+      <c r="D65" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
-        <v>327</v>
+      <c r="A66" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="B66" s="1">
         <v>45462590</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D66"/>
-      <c r="E66" s="5">
+      <c r="C66" s="3">
         <v>30835</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>331</v>
+      <c r="D66" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
-        <v>332</v>
+      <c r="A67" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="B67" s="1">
         <v>45462591</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D67"/>
-      <c r="E67" s="5">
+      <c r="C67" s="3">
         <v>27903</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>336</v>
+      <c r="D67" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="s">
-        <v>337</v>
+      <c r="A68" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="B68" s="1">
         <v>45462592</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D68"/>
-      <c r="E68" s="5">
+      <c r="C68" s="3">
         <v>36328</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>341</v>
+      <c r="D68" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="s">
-        <v>342</v>
+      <c r="A69" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="B69" s="1">
         <v>45462593</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D69"/>
-      <c r="E69" s="5">
+      <c r="C69" s="3">
         <v>30968</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>346</v>
+      <c r="D69" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
-        <v>347</v>
+      <c r="A70" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="B70" s="1">
         <v>45462594</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="D70"/>
-      <c r="E70" s="5">
+      <c r="C70" s="3">
         <v>28096</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>351</v>
+      <c r="D70" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="s">
-        <v>352</v>
+      <c r="A71" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="B71" s="1">
         <v>45462595</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D71"/>
-      <c r="E71" s="5">
+      <c r="C71" s="3">
         <v>31189</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>356</v>
+      <c r="D71" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" s="3"/>
+      <c r="E72" s="2"/>
     </row>
     <row r="73">
-      <c r="G73" s="3"/>
+      <c r="E73" s="2"/>
     </row>
     <row r="74" ht="30">
-      <c r="G74" s="6"/>
+      <c r="E74" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView topLeftCell="A51" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="12.125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1180</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1">
+        <v>176596</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2280</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2">
+        <v>223523</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4560</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3">
+        <v>354155</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>9120</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4">
+        <v>554296</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2367</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5">
+        <v>558134</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>7101</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6">
+        <v>669343</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3455</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7">
+        <v>719630</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2377</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8">
+        <v>871623</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8755</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9">
+        <v>921148</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>4355</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10">
+        <v>104594</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2791</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11">
+        <v>114390</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>5582</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12">
+        <v>126286</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>2978</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13">
+        <v>133653</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>7512</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14">
+        <v>141956</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>5046</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15">
+        <v>158433</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2460</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16">
+        <v>169505</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>3412</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17">
+        <v>174593</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>4950</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18">
+        <v>183034</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>5829</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19">
+        <v>219464</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>6443</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20">
+        <v>208059</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>7079</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21">
+        <v>213265</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>8207</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22">
+        <v>522702</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>9307</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23">
+        <v>232158</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>1357</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24">
+        <v>242839</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>1167</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25">
+        <v>256636</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>1768</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26">
+        <v>266986</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>1710</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27">
+        <v>427875</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>1806</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28">
+        <v>289145</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>1587</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29">
+        <v>291249</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>1647</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30">
+        <v>306372</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>1742</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31">
+        <v>316556</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1474</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32">
+        <v>326347</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>1452</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33">
+        <v>339539</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>2077</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34">
+        <v>443480</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>2147</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35">
+        <v>357518</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>2687</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36">
+        <v>363884</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>2376</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37">
+        <v>443711</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>2568</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38">
+        <v>386237</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>2556</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39">
+        <v>439376</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>2737</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40">
+        <v>407501</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>2581</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41">
+        <v>441645</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>2675</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42">
+        <v>427933</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>2967</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43">
+        <v>434531</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>3070</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44">
+        <v>449655</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>3108</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45">
+        <v>451174</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>3250</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46">
+        <v>464705</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>3392</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47">
+        <v>471644</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>3497</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48">
+        <v>487819</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>3560</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49">
+        <v>491260</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>3620</v>
+      </c>
+      <c r="C50"/>
+      <c r="D50">
+        <v>506034</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>3774</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51">
+        <v>511438</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>3862</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52">
+        <v>521377</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>3084</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53">
+        <v>535966</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>4021</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54">
+        <v>541528</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>4109</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55">
+        <v>554053</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>4537</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56">
+        <v>564868</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>4914</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57">
+        <v>572471</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>4445</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58">
+        <v>581302</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>4743</v>
+      </c>
+      <c r="C59"/>
+      <c r="D59">
+        <v>598180</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>4741</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60">
+        <v>601821</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>4783</v>
+      </c>
+      <c r="C61"/>
+      <c r="D61">
+        <v>612567</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>4658</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62">
+        <v>621200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>4908</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63">
+        <v>634613</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>5092</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64">
+        <v>642468</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>5155</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65">
+        <v>465274</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>5086</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66">
+        <v>666893</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>5333</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67">
+        <v>675375</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>5493</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68">
+        <v>684572</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>5150</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69">
+        <v>696226</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>1308</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70">
+        <v>703305</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>